--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MINH THƯ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Van Thien\Desktop\MINH THƯ\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA03DD6D-3107-45E3-9B87-6B26C5587852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet13" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="64">
   <si>
     <t>STT</t>
   </si>
@@ -217,12 +218,15 @@
   </si>
   <si>
     <t>24 khoanh</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -230,7 +234,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -368,15 +372,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -660,39 +656,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="C1:P34"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:O34"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="6.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" style="2" customWidth="1"/>
+    <col min="1" max="2" width="9.09765625" style="2"/>
+    <col min="3" max="3" width="6.3984375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="39.296875" style="2" customWidth="1"/>
     <col min="5" max="6" width="12" style="6" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.296875" style="6" customWidth="1"/>
     <col min="8" max="8" width="22" style="6" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="6" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="6" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="11.7109375" style="6" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="6" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="2"/>
+    <col min="9" max="9" width="11.59765625" style="6" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="19.3984375" style="6" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="11.69921875" style="6" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="6.09765625" style="6" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.69921875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="14.8984375" style="6" customWidth="1"/>
+    <col min="16" max="16384" width="9.09765625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="3:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="C2" s="15" t="s">
         <v>0</v>
       </c>
@@ -731,7 +730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
       <c r="E3" s="9"/>
@@ -746,7 +745,7 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
     </row>
-    <row r="4" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -787,7 +786,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="C5" s="9">
         <v>2</v>
       </c>
@@ -826,7 +825,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3">
         <v>3</v>
       </c>
@@ -865,7 +864,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="C7" s="9">
         <v>4</v>
       </c>
@@ -904,7 +903,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="C8" s="3">
         <v>5</v>
       </c>
@@ -943,7 +942,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="C9" s="9">
         <v>6</v>
       </c>
@@ -982,7 +981,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="C10" s="3">
         <v>7</v>
       </c>
@@ -1021,7 +1020,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="C11" s="9">
         <v>8</v>
       </c>
@@ -1060,7 +1059,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="C12" s="3">
         <v>9</v>
       </c>
@@ -1099,7 +1098,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="C13" s="3">
         <v>1</v>
       </c>
@@ -1140,7 +1139,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="C14" s="9">
         <v>2</v>
       </c>
@@ -1181,7 +1180,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="C15" s="3">
         <v>3</v>
       </c>
@@ -1222,7 +1221,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="C16" s="9">
         <v>4</v>
       </c>
@@ -1998,7 +1997,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C3:H34">
+  <autoFilter ref="C3:H34" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <colorFilter dxfId="0"/>
     </filterColumn>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Van Thien\Desktop\MINH THƯ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA03DD6D-3107-45E3-9B87-6B26C5587852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2662C96-A000-4478-BF61-A75A32C9F7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="63">
   <si>
     <t>STT</t>
   </si>
@@ -218,9 +218,6 @@
   </si>
   <si>
     <t>24 khoanh</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
 </sst>
 </file>
@@ -660,10 +657,10 @@
   <sheetPr filterMode="1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:O34"/>
+  <dimension ref="C1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -683,15 +680,12 @@
     <col min="16" max="16384" width="9.09765625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:15" x14ac:dyDescent="0.25">
       <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>63</v>
-      </c>
+    <row r="2" spans="3:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="15" t="s">
         <v>0</v>
       </c>
@@ -730,7 +724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
       <c r="E3" s="9"/>
@@ -745,7 +739,7 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -786,7 +780,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="C5" s="9">
         <v>2</v>
       </c>
@@ -825,7 +819,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3">
         <v>3</v>
       </c>
@@ -864,7 +858,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="C7" s="9">
         <v>4</v>
       </c>
@@ -903,7 +897,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="C8" s="3">
         <v>5</v>
       </c>
@@ -942,7 +936,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="C9" s="9">
         <v>6</v>
       </c>
@@ -981,7 +975,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="C10" s="3">
         <v>7</v>
       </c>
@@ -1020,7 +1014,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="C11" s="9">
         <v>8</v>
       </c>
@@ -1059,7 +1053,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="C12" s="3">
         <v>9</v>
       </c>
@@ -1098,7 +1092,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="C13" s="3">
         <v>1</v>
       </c>
@@ -1139,7 +1133,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="C14" s="9">
         <v>2</v>
       </c>
@@ -1180,7 +1174,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="C15" s="3">
         <v>3</v>
       </c>
@@ -1221,7 +1215,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="C16" s="9">
         <v>4</v>
       </c>
